--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,10 +147,19 @@
     <t>Missing - Restricted access</t>
   </si>
   <si>
+    <t>Missing - Restricted Access</t>
+  </si>
+  <si>
     <t>Missing - Not provided</t>
   </si>
   <si>
+    <t>Missing - Not Provided</t>
+  </si>
+  <si>
     <t>Missing - Not collected</t>
+  </si>
+  <si>
+    <t>Missing - Not Collected</t>
   </si>
   <si>
     <t>Missing - Unknown</t>
@@ -509,7 +518,7 @@
         <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -518,10 +527,10 @@
         <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -530,10 +539,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -542,10 +551,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -554,10 +563,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-gender-collection-method.xlsx
+++ b/docs/CodeSystem-gender-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
